--- a/Analog-Signal-Components/2025-RFoF/1U-Enclosure/Sourcing_RFoF_Enclosure.xlsx
+++ b/Analog-Signal-Components/2025-RFoF/1U-Enclosure/Sourcing_RFoF_Enclosure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\Documents\ATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Analog-Signal-Components/2025-RFoF/1U-Enclosure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA77F9AD-BA20-42B1-B930-FAAC2D34A8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8185D26E-4899-0948-A88B-E3C6967796E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-99480" yWindow="1000" windowWidth="30220" windowHeight="21560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -791,26 +791,26 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -839,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -868,7 +868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -897,7 +897,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -926,7 +926,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -955,7 +955,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -984,7 +984,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
